--- a/biology/Zoologie/Eoformica/Eoformica.xlsx
+++ b/biology/Zoologie/Eoformica/Eoformica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eoformica est un genre fossile d'insectes  Hyménoptère de la famille des Formicidae (les fourmis).
 </t>
@@ -511,11 +523,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Eoformica est décrit et publié par Theodore Dru Alison Cockerell en 1921[1],[2]
-Citations
-Ce genre Eoformica est cité par B. Bolton en 2003[3], F. M. Carpenter en 1992[4] et par G. M. Dlussky et A. P. Rasnitsyn en 2002[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Eoformica est décrit et publié par Theodore Dru Alison Cockerell en 1921,
 </t>
         </is>
       </c>
@@ -541,12 +553,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Publication</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Citations</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre Eoformica est cité par B. Bolton en 2003, F. M. Carpenter en 1992 et par G. M. Dlussky et A. P. Rasnitsyn en 2002.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eoformica</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eoformica</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Paleobiology Database en 2022, le nombre des espèces référencées est de six[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2022, le nombre des espèces référencées est de six :
 Eoformica brevipetiola LaPolla &amp; Greenwalt, 2015
 Eoformica expectans Théobald, 1937
 Eoformica globularis Dlussky &amp; Rasnitsyn, 2002
